--- a/F_dataset/DUD-E/CSF1R/CSF1R_prepare/CSF1R_inactive.xlsx
+++ b/F_dataset/DUD-E/CSF1R/CSF1R_prepare/CSF1R_inactive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T169"/>
+  <dimension ref="A1:T141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8655,2358 +8655,6 @@
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>CHEMBL3629013</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>N#Cc1ccnc(Nc2cc(C3CCN(C4COC4)CC3)n(C3CCCC3)n2)c1</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>N#Cc1ccnc(Nc2cc(C3CCN(C4COC4)CC3)n(C3CCCC3)n2)c1</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>392.51</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>6</v>
-      </c>
-      <c r="J142" t="n">
-        <v>5</v>
-      </c>
-      <c r="K142" t="n">
-        <v>5</v>
-      </c>
-      <c r="L142" t="n">
-        <v>2</v>
-      </c>
-      <c r="M142" t="n">
-        <v>79</v>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q142" t="n">
-        <v>57000</v>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>CHEMBL3631839</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin) by FRET method</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>CHEMBL2216825</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>0</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>457.48</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>9</v>
-      </c>
-      <c r="J143" t="n">
-        <v>2</v>
-      </c>
-      <c r="K143" t="n">
-        <v>5</v>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q143" t="n">
-        <v>6</v>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>CHEMBL1019609</t>
-        </is>
-      </c>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R at 1 uM</t>
-        </is>
-      </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>CHEMBL2152768</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>0</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>CC(C)(O)C1CCN(Cc2ccc3nc(-c4c(F)ccc5[nH]ccc45)nc(N4CCOCC4)c3n2)CC1</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>504.61</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>7</v>
-      </c>
-      <c r="J144" t="n">
-        <v>5</v>
-      </c>
-      <c r="K144" t="n">
-        <v>6</v>
-      </c>
-      <c r="L144" t="n">
-        <v>4</v>
-      </c>
-      <c r="M144" t="n">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q144" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="R144" t="inlineStr">
-        <is>
-          <t>CHEMBL2156514</t>
-        </is>
-      </c>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R at 1 uM</t>
-        </is>
-      </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>CHEMBL4528675</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>0</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>COc1ccc(N2C(=O)COc3ccc(-c4cnc(OC)c(NS(=O)(=O)c5ccc(F)cc5)c4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>535.55</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>7</v>
-      </c>
-      <c r="J145" t="n">
-        <v>7</v>
-      </c>
-      <c r="K145" t="n">
-        <v>5</v>
-      </c>
-      <c r="L145" t="n">
-        <v>4</v>
-      </c>
-      <c r="M145" t="n">
-        <v>107.06</v>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q145" t="n">
-        <v>-14.17</v>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>CHEMBL4366410</t>
-        </is>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>Inhibition of human FMS at 100 nM using poly[Glu:Tyr] (4:1) as substrate by [gamma-33P]-ATP assay</t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>CHEMBL4078898</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>CC(C)n1cnc2c(Nc3cc(N)cc(Cl)c3)nc(N[C@@H]3CCCC[C@@H]3N)nc21</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>CC(C)n1cnc2c(Nc3cc(N)cc(Cl)c3)nc(N[C@@H]3CCCC[C@@H]3N)nc21</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>414.95</v>
-      </c>
-      <c r="H146" t="n">
-        <v>4</v>
-      </c>
-      <c r="I146" t="n">
-        <v>7</v>
-      </c>
-      <c r="J146" t="n">
-        <v>5</v>
-      </c>
-      <c r="K146" t="n">
-        <v>4</v>
-      </c>
-      <c r="L146" t="n">
-        <v>3</v>
-      </c>
-      <c r="M146" t="n">
-        <v>119.7</v>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q146" t="n">
-        <v>9</v>
-      </c>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>CHEMBL4003783</t>
-        </is>
-      </c>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>Inhibition of human Fms using KKKSPGEYVNIEFG as substrate in presence of [gamma-33P]ATP at 1 uM after 40 mins by scintillation counter method</t>
-        </is>
-      </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>CHEMBL4278763</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>0</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>NC1(c2ccc(-c3cnc4c(-c5ccc(S(N)(=O)=O)c6ccccc56)cnn4c3)cc2)CCC1</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>469.57</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>5</v>
-      </c>
-      <c r="J147" t="n">
-        <v>4</v>
-      </c>
-      <c r="K147" t="n">
-        <v>6</v>
-      </c>
-      <c r="L147" t="n">
-        <v>5</v>
-      </c>
-      <c r="M147" t="n">
-        <v>116.37</v>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q147" t="n">
-        <v>10</v>
-      </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>CHEMBL4263811</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS (unknown origin) at 1 uM relative to control</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>CHEMBL4553144</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)c4cccc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)c4cccc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>548.95</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>4</v>
-      </c>
-      <c r="J148" t="n">
-        <v>6</v>
-      </c>
-      <c r="K148" t="n">
-        <v>5</v>
-      </c>
-      <c r="L148" t="n">
-        <v>5</v>
-      </c>
-      <c r="M148" t="n">
-        <v>69.04000000000001</v>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q148" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>CHEMBL4313422</t>
-        </is>
-      </c>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>Inhibition of human FMS at 10 uM using poly[Glu:Tyr] (4:1) as substrate by [gamma-33P]-ATP assay relative to control</t>
-        </is>
-      </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>CHEMBL4757546</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>0</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Cc1cc(Nc2cc(N3CCN(CCCN(C)C)CC3)ncn2)c(=O)n2c1C(=O)NC21CCCCC1</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Cc1cc(Nc2cc(N3CCN(CCCN(C)C)CC3)ncn2)c(=O)n2c1C(=O)NC21CCCCC1</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>494.64</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>8</v>
-      </c>
-      <c r="J149" t="n">
-        <v>7</v>
-      </c>
-      <c r="K149" t="n">
-        <v>5</v>
-      </c>
-      <c r="L149" t="n">
-        <v>2</v>
-      </c>
-      <c r="M149" t="n">
-        <v>98.63</v>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q149" t="n">
-        <v>6</v>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>CHEMBL4666413</t>
-        </is>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin) at 500 nM relative to control</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>CHEMBL583042</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Cc1cnc(Nc2ccc(F)cc2Cl)nc1-c1c[nH]c(C(=O)N[C@H](CO)c2cccc(Cl)c2)c1</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>500.36</v>
-      </c>
-      <c r="H150" t="n">
-        <v>4</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5</v>
-      </c>
-      <c r="J150" t="n">
-        <v>7</v>
-      </c>
-      <c r="K150" t="n">
-        <v>4</v>
-      </c>
-      <c r="L150" t="n">
-        <v>4</v>
-      </c>
-      <c r="M150" t="n">
-        <v>102.93</v>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q150" t="n">
-        <v>6</v>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>CHEMBL1041364</t>
-        </is>
-      </c>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>Inhibition of FMS at 1 uM</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>CHEMBL607196</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>0</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>380.45</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>2</v>
-      </c>
-      <c r="J151" t="n">
-        <v>4</v>
-      </c>
-      <c r="K151" t="n">
-        <v>5</v>
-      </c>
-      <c r="L151" t="n">
-        <v>3</v>
-      </c>
-      <c r="M151" t="n">
-        <v>49.41</v>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q151" t="n">
-        <v>11</v>
-      </c>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>CHEMBL1069291</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R at 10 uM</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>CHEMBL4878199</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>N[C@H]1CCCN(C(=O)c2ccc(-c3ccc4ncc(-c5ccc6cnccc6c5)n4n3)cc2)C1</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>N[C@H]1CCCN(C(=O)c2ccc(-c3ccc4ncc(-c5ccc6cnccc6c5)n4n3)cc2)C1</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
-        <v>448.53</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>5</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3</v>
-      </c>
-      <c r="K152" t="n">
-        <v>6</v>
-      </c>
-      <c r="L152" t="n">
-        <v>5</v>
-      </c>
-      <c r="M152" t="n">
-        <v>89.41</v>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q152" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>CHEMBL4822887</t>
-        </is>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>Inhibition of CSF1R (unknown origin) at 500 nM</t>
-        </is>
-      </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>CHEMBL160937</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>0</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2ccccc2Cl)=C1Nc1cccc(O)c1</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>314.73</v>
-      </c>
-      <c r="H153" t="n">
-        <v>3</v>
-      </c>
-      <c r="I153" t="n">
-        <v>4</v>
-      </c>
-      <c r="J153" t="n">
-        <v>3</v>
-      </c>
-      <c r="K153" t="n">
-        <v>3</v>
-      </c>
-      <c r="L153" t="n">
-        <v>2</v>
-      </c>
-      <c r="M153" t="n">
-        <v>78.43000000000001</v>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q153" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>CHEMBL1794050</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0</v>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccc(-c3cccnc3)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>O=C1Nc2ccc(-c3cccnc3)cc2C1=Cc1cc(Br)c(O)c(Br)c1</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>472.14</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3</v>
-      </c>
-      <c r="J154" t="n">
-        <v>2</v>
-      </c>
-      <c r="K154" t="n">
-        <v>4</v>
-      </c>
-      <c r="L154" t="n">
-        <v>3</v>
-      </c>
-      <c r="M154" t="n">
-        <v>62.22</v>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P154" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q154" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="R154" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S154" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>CHEMBL1794066</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>0</v>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
-        <v>411.47</v>
-      </c>
-      <c r="H155" t="n">
-        <v>3</v>
-      </c>
-      <c r="I155" t="n">
-        <v>9</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4</v>
-      </c>
-      <c r="K155" t="n">
-        <v>4</v>
-      </c>
-      <c r="L155" t="n">
-        <v>3</v>
-      </c>
-      <c r="M155" t="n">
-        <v>137.14</v>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P155" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q155" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R155" t="inlineStr">
-        <is>
-          <t>CHEMBL1962103</t>
-        </is>
-      </c>
-      <c r="S155" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>CHEMBL1794071</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0</v>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>ON=C1CCc2cc(-c3nc(C4CCNCC4)[nH]c3-c3ccncc3)ccc21</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>ON=C1CCc2cc(-c3nc(C4CCNCC4)[nH]c3-c3ccncc3)ccc21</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
-        <v>373.46</v>
-      </c>
-      <c r="H156" t="n">
-        <v>3</v>
-      </c>
-      <c r="I156" t="n">
-        <v>4</v>
-      </c>
-      <c r="J156" t="n">
-        <v>3</v>
-      </c>
-      <c r="K156" t="n">
-        <v>5</v>
-      </c>
-      <c r="L156" t="n">
-        <v>3</v>
-      </c>
-      <c r="M156" t="n">
-        <v>86.19</v>
-      </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O156" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q156" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R156" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S156" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>CHEMBL1909380</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0</v>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>COc1cc2ncnc(Nc3ccc4c(cnn4Cc4ccccc4)c3)c2cc1OC</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>411.47</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>6</v>
-      </c>
-      <c r="J157" t="n">
-        <v>6</v>
-      </c>
-      <c r="K157" t="n">
-        <v>5</v>
-      </c>
-      <c r="L157" t="n">
-        <v>5</v>
-      </c>
-      <c r="M157" t="n">
-        <v>74.09</v>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P157" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q157" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R157" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S157" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>CHEMBL1909405</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>0</v>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>CN(C)CCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>CN(C)CCCNc1nccc(-c2c(-c3ccc(F)cc3)nn3cc(C(F)(F)F)ccc23)n1</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>458.46</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>5</v>
-      </c>
-      <c r="J158" t="n">
-        <v>7</v>
-      </c>
-      <c r="K158" t="n">
-        <v>4</v>
-      </c>
-      <c r="L158" t="n">
-        <v>4</v>
-      </c>
-      <c r="M158" t="n">
-        <v>58.35</v>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q158" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R158" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S158" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>CHEMBL196022</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>0</v>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2coc3ncnc(N)c23)cc1</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>COc1ccc(-c2coc3ncnc(N)c23)cc1</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>241.25</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>5</v>
-      </c>
-      <c r="J159" t="n">
-        <v>2</v>
-      </c>
-      <c r="K159" t="n">
-        <v>3</v>
-      </c>
-      <c r="L159" t="n">
-        <v>3</v>
-      </c>
-      <c r="M159" t="n">
-        <v>74.17</v>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q159" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R159" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S159" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T159" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>CHEMBL205158</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0</v>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCN4CCOCC4)cc3)c2)nc1</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
-        <v>427.51</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>6</v>
-      </c>
-      <c r="J160" t="n">
-        <v>7</v>
-      </c>
-      <c r="K160" t="n">
-        <v>5</v>
-      </c>
-      <c r="L160" t="n">
-        <v>4</v>
-      </c>
-      <c r="M160" t="n">
-        <v>76.16</v>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P160" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q160" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="R160" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T160" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>CHEMBL230597</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>0</v>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)Nc1ccc(-c2cc(-c3ccccc3)cc(C(N)=O)c2N)cc1</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>CS(=O)(=O)Nc1ccc(-c2cc(-c3ccccc3)cc(C(N)=O)c2N)cc1</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>381.46</v>
-      </c>
-      <c r="H161" t="n">
-        <v>3</v>
-      </c>
-      <c r="I161" t="n">
-        <v>4</v>
-      </c>
-      <c r="J161" t="n">
-        <v>5</v>
-      </c>
-      <c r="K161" t="n">
-        <v>3</v>
-      </c>
-      <c r="L161" t="n">
-        <v>3</v>
-      </c>
-      <c r="M161" t="n">
-        <v>115.28</v>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P161" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q161" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="R161" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S161" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T161" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>CHEMBL233001</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>0</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
-        <v>332.43</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2</v>
-      </c>
-      <c r="J162" t="n">
-        <v>2</v>
-      </c>
-      <c r="K162" t="n">
-        <v>4</v>
-      </c>
-      <c r="L162" t="n">
-        <v>3</v>
-      </c>
-      <c r="M162" t="n">
-        <v>52.89</v>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P162" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q162" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R162" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S162" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T162" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>CHEMBL272026</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>0</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCCCn4ccnc4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>NS(=O)(=O)c1ccc(N/N=C2\C(=O)Nc3ccc(C(=O)NCCCn4ccnc4)cc32)cc1</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>467.51</v>
-      </c>
-      <c r="H163" t="n">
-        <v>4</v>
-      </c>
-      <c r="I163" t="n">
-        <v>6</v>
-      </c>
-      <c r="J163" t="n">
-        <v>8</v>
-      </c>
-      <c r="K163" t="n">
-        <v>4</v>
-      </c>
-      <c r="L163" t="n">
-        <v>3</v>
-      </c>
-      <c r="M163" t="n">
-        <v>160.57</v>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P163" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q163" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="R163" t="inlineStr">
-        <is>
-          <t>CHEMBL1962103</t>
-        </is>
-      </c>
-      <c r="S163" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T163" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>CHEMBL385426</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>0</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>CCc1cccc(CC)c1/C=C/c1cncc(C(=O)NC)c1</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>CCc1cccc(CC)c1/C=C/c1cncc(C(=O)NC)c1</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>294.4</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>2</v>
-      </c>
-      <c r="J164" t="n">
-        <v>5</v>
-      </c>
-      <c r="K164" t="n">
-        <v>2</v>
-      </c>
-      <c r="L164" t="n">
-        <v>2</v>
-      </c>
-      <c r="M164" t="n">
-        <v>41.99</v>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P164" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q164" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R164" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S164" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T164" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>CHEMBL402108</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>0</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Cc1nnc(-c2ccc(C)c(-c3ccc(C(=O)NCc4ccc(Cl)cc4)cc3)c2)o1</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Cc1nnc(-c2ccc(C)c(-c3ccc(C(=O)NCc4ccc(Cl)cc4)cc3)c2)o1</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>417.9</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>4</v>
-      </c>
-      <c r="J165" t="n">
-        <v>5</v>
-      </c>
-      <c r="K165" t="n">
-        <v>4</v>
-      </c>
-      <c r="L165" t="n">
-        <v>4</v>
-      </c>
-      <c r="M165" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P165" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q165" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R165" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S165" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T165" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>CHEMBL419903</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>0</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>295.32</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>2</v>
-      </c>
-      <c r="J166" t="n">
-        <v>3</v>
-      </c>
-      <c r="K166" t="n">
-        <v>4</v>
-      </c>
-      <c r="L166" t="n">
-        <v>3</v>
-      </c>
-      <c r="M166" t="n">
-        <v>57.78</v>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P166" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q166" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R166" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S166" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T166" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>CHEMBL441702</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>0</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc3ccccc3c2)CC(=O)N1</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>CC1=C(C(=O)Nc2ccc3[nH]ncc3c2)C(c2ccc3ccccc3c2)CC(=O)N1</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>396.45</v>
-      </c>
-      <c r="H167" t="n">
-        <v>3</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3</v>
-      </c>
-      <c r="J167" t="n">
-        <v>3</v>
-      </c>
-      <c r="K167" t="n">
-        <v>5</v>
-      </c>
-      <c r="L167" t="n">
-        <v>4</v>
-      </c>
-      <c r="M167" t="n">
-        <v>86.88</v>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P167" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q167" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="R167" t="inlineStr">
-        <is>
-          <t>CHEMBL1962102</t>
-        </is>
-      </c>
-      <c r="S167" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T167" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>CHEMBL458415</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>0</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>COc1cc2c(cc1Nc1nc(N3CCc4ccccc43)c3cc[nH]c3n1)N(C(=O)CN(C)C)CC2</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>COc1cc2c(cc1Nc1nc(N3CCc4ccccc43)c3cc[nH]c3n1)N(C(=O)CN(C)C)CC2</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>483.58</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>7</v>
-      </c>
-      <c r="J168" t="n">
-        <v>6</v>
-      </c>
-      <c r="K168" t="n">
-        <v>6</v>
-      </c>
-      <c r="L168" t="n">
-        <v>4</v>
-      </c>
-      <c r="M168" t="n">
-        <v>89.62</v>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P168" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q168" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R168" t="inlineStr">
-        <is>
-          <t>CHEMBL1962103</t>
-        </is>
-      </c>
-      <c r="S168" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>CHEMBL522709</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>0</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>COc1ccc2ncn(-c3cc(O[C@H](C)c4ccccc4C(F)(F)F)c(C(N)=O)s3)c2c1</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>COc1ccc2ncn(-c3cc(O[C@H](C)c4ccccc4C(F)(F)F)c(C(N)=O)s3)c2c1</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>461.47</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4</v>
-      </c>
-      <c r="J169" t="n">
-        <v>6</v>
-      </c>
-      <c r="K169" t="n">
-        <v>4</v>
-      </c>
-      <c r="L169" t="n">
-        <v>4</v>
-      </c>
-      <c r="M169" t="n">
-        <v>79.37</v>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P169" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q169" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R169" t="inlineStr">
-        <is>
-          <t>CHEMBL1962103</t>
-        </is>
-      </c>
-      <c r="S169" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: FMS mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
